--- a/data/trans_orig/AIRE_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E81F8A1E-7DB8-4228-B825-48B63A9599A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E80E2E9-D0A8-4A9F-93FC-104C8824C306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{49883101-0F81-4257-80CB-D33619D6D06C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7B653699-CADB-498F-8307-EE11601D9B70}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>56,11%</t>
   </si>
   <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
   </si>
   <si>
     <t>72,78%</t>
   </si>
   <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
   </si>
   <si>
     <t>66,72%</t>
   </si>
   <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>43,89%</t>
   </si>
   <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
   </si>
   <si>
     <t>27,22%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
   </si>
   <si>
     <t>33,28%</t>
   </si>
   <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,25 +137,25 @@
     <t>75,86%</t>
   </si>
   <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
   </si>
   <si>
     <t>76,1%</t>
   </si>
   <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
   </si>
   <si>
     <t>75,97%</t>
   </si>
   <si>
-    <t>72,64%</t>
+    <t>72,77%</t>
   </si>
   <si>
     <t>78,92%</t>
@@ -164,19 +164,19 @@
     <t>24,14%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
   </si>
   <si>
     <t>23,9%</t>
   </si>
   <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
   </si>
   <si>
     <t>24,03%</t>
@@ -185,7 +185,7 @@
     <t>21,08%</t>
   </si>
   <si>
-    <t>27,36%</t>
+    <t>27,23%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,55 +194,55 @@
     <t>72,05%</t>
   </si>
   <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
   </si>
   <si>
     <t>76,66%</t>
   </si>
   <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
   </si>
   <si>
     <t>74,38%</t>
   </si>
   <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
   </si>
   <si>
     <t>27,95%</t>
   </si>
   <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
   </si>
   <si>
     <t>23,34%</t>
   </si>
   <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
   </si>
   <si>
     <t>25,62%</t>
   </si>
   <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,55 +251,55 @@
     <t>72,76%</t>
   </si>
   <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
   </si>
   <si>
     <t>76,46%</t>
   </si>
   <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
   </si>
   <si>
     <t>74,85%</t>
   </si>
   <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
   </si>
   <si>
     <t>27,24%</t>
   </si>
   <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
   </si>
   <si>
     <t>23,54%</t>
   </si>
   <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
   </si>
   <si>
     <t>25,15%</t>
   </si>
   <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>76,83%</t>
   </si>
   <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
   </si>
   <si>
     <t>81,56%</t>
   </si>
   <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
   </si>
   <si>
     <t>79,39%</t>
   </si>
   <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
   </si>
   <si>
     <t>23,17%</t>
   </si>
   <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
   </si>
   <si>
     <t>18,44%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
   </si>
   <si>
     <t>20,61%</t>
   </si>
   <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
   </si>
   <si>
     <t>73,86%</t>
   </si>
   <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
   </si>
   <si>
     <t>77,84%</t>
   </si>
   <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
   </si>
   <si>
     <t>75,98%</t>
   </si>
   <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
   </si>
   <si>
     <t>26,14%</t>
   </si>
   <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
   </si>
   <si>
     <t>24,02%</t>
   </si>
   <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91335A94-1E94-4493-AE9E-8314BB4AA98D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C203033C-2684-4F02-8556-46553561C2BC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1721,7 +1721,7 @@
         <v>1315</v>
       </c>
       <c r="D19" s="7">
-        <v>1268590</v>
+        <v>1268589</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
@@ -1823,7 +1823,7 @@
         <v>1763</v>
       </c>
       <c r="D21" s="7">
-        <v>1717488</v>
+        <v>1717487</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/AIRE_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E80E2E9-D0A8-4A9F-93FC-104C8824C306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6CCFDF0-7A05-4F89-9626-3E277FCDA73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7B653699-CADB-498F-8307-EE11601D9B70}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B6A688D4-7A07-4E1D-8062-DF75F3BD7203}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>75,86%</t>
@@ -188,7 +188,7 @@
     <t>27,23%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>72,05%</t>
@@ -245,7 +245,7 @@
     <t>28,59%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>72,76%</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C203033C-2684-4F02-8556-46553561C2BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5153D92D-04BB-4061-888F-756DA75FF59F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
